--- a/Liquidity-Data-Auto.xlsx
+++ b/Liquidity-Data-Auto.xlsx
@@ -452,7 +452,9 @@
           <t>2021-08-07</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>44555.80078125</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -460,7 +462,9 @@
           <t>2021-08-14</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>47096.9453125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,7 +472,9 @@
           <t>2021-08-21</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>48905.4921875</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -476,7 +482,9 @@
           <t>2021-08-28</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>48902.40234375</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -484,7 +492,9 @@
           <t>2021-09-04</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>49944.625</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -492,7 +502,9 @@
           <t>2021-09-11</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>45201.45703125</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -500,7 +512,9 @@
           <t>2021-09-18</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>48278.36328125</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -508,7 +522,9 @@
           <t>2021-09-25</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>42716.59375</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -516,7 +532,9 @@
           <t>2021-10-02</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>47711.48828125</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -524,7 +542,9 @@
           <t>2021-10-09</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>54968.22265625</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -532,7 +552,9 @@
           <t>2021-10-16</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>60892.1796875</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -540,7 +562,9 @@
           <t>2021-10-23</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>61393.6171875</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -548,7 +572,9 @@
           <t>2021-10-30</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>61888.83203125</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -556,7 +582,9 @@
           <t>2021-11-06</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>61527.48046875</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -564,7 +592,9 @@
           <t>2021-11-13</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>64469.52734375</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -572,7 +602,9 @@
           <t>2021-11-20</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>59697.1953125</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -580,7 +612,9 @@
           <t>2021-11-27</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>54815.078125</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -588,7 +622,9 @@
           <t>2021-12-04</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>49200.703125</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -596,7 +632,9 @@
           <t>2021-12-11</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>49362.5078125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -604,7 +642,9 @@
           <t>2021-12-18</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>46848.77734375</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -612,7 +652,9 @@
           <t>2021-12-25</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>50429.859375</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -620,7 +662,9 @@
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>47686.8125</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -628,7 +672,9 @@
           <t>2022-01-08</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>41733.94140625</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -636,7 +682,9 @@
           <t>2022-01-15</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>43177.3984375</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -644,7 +692,9 @@
           <t>2022-01-22</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>35030.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -652,7 +702,9 @@
           <t>2022-01-29</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>38138.1796875</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -660,7 +712,9 @@
           <t>2022-02-05</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>41441.1640625</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -668,7 +722,9 @@
           <t>2022-02-12</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>42244.46875</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -676,7 +732,9 @@
           <t>2022-02-19</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>40122.15625</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -684,7 +742,9 @@
           <t>2022-02-26</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>39105.1484375</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -692,7 +752,9 @@
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>39400.5859375</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -700,7 +762,9 @@
           <t>2022-03-12</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>38904.01171875</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -708,7 +772,9 @@
           <t>2022-03-19</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>42190.65234375</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -716,7 +782,9 @@
           <t>2022-03-26</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>44500.828125</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -724,7 +792,9 @@
           <t>2022-04-02</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>45868.94921875</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -732,7 +802,9 @@
           <t>2022-04-09</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>42782.13671875</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -740,7 +812,9 @@
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>40424.484375</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -748,7 +822,9 @@
           <t>2022-04-23</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>39486.73046875</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -756,7 +832,9 @@
           <t>2022-04-30</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>37714.875</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -764,7 +842,9 @@
           <t>2022-05-07</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>35501.953125</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -772,7 +852,9 @@
           <t>2022-05-14</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>30101.265625</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -780,7 +862,9 @@
           <t>2022-05-21</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>29432.2265625</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -788,7 +872,9 @@
           <t>2022-05-28</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>28814.900390625</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -796,7 +882,9 @@
           <t>2022-06-04</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>29832.9140625</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -804,7 +892,9 @@
           <t>2022-06-11</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>28360.810546875</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -812,7 +902,9 @@
           <t>2022-06-18</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>19017.642578125</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -820,7 +912,9 @@
           <t>2022-06-25</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>21502.337890625</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -828,7 +922,9 @@
           <t>2022-07-02</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>19242.255859375</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -836,7 +932,9 @@
           <t>2022-07-09</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>21592.20703125</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -844,7 +942,9 @@
           <t>2022-07-16</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>21190.31640625</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -852,7 +952,9 @@
           <t>2022-07-23</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>22465.478515625</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -860,7 +962,9 @@
           <t>2022-07-30</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>23656.20703125</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -868,7 +972,9 @@
           <t>2022-08-06</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>22961.279296875</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -876,7 +982,9 @@
           <t>2022-08-13</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>24424.068359375</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -884,7 +992,9 @@
           <t>2022-08-20</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>21166.060546875</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -892,7 +1002,9 @@
           <t>2022-08-27</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>20041.73828125</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -900,7 +1012,9 @@
           <t>2022-09-03</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>19832.087890625</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -908,7 +1022,9 @@
           <t>2022-09-10</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>21680.5390625</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -916,7 +1032,9 @@
           <t>2022-09-17</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>20127.576171875</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -924,7 +1042,9 @@
           <t>2022-09-24</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>18937.01171875</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -932,7 +1052,9 @@
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>19312.095703125</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -940,7 +1062,9 @@
           <t>2022-10-08</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>19416.568359375</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -948,7 +1072,9 @@
           <t>2022-10-15</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>19067.634765625</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -956,7 +1082,9 @@
           <t>2022-10-22</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>19208.189453125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -964,7 +1092,9 @@
           <t>2022-10-29</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>20818.4765625</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -972,7 +1102,9 @@
           <t>2022-11-05</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>21282.69140625</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -980,7 +1112,9 @@
           <t>2022-11-12</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>16799.185546875</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -988,7 +1122,9 @@
           <t>2022-11-19</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>16711.546875</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -996,7 +1132,9 @@
           <t>2022-11-26</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>16464.28125</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1004,7 +1142,9 @@
           <t>2022-12-03</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>16908.236328125</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1012,7 +1152,9 @@
           <t>2022-12-10</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>17128.724609375</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1020,7 +1162,9 @@
           <t>2022-12-17</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>16795.091796875</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1028,7 +1172,9 @@
           <t>2022-12-24</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>16847.755859375</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1036,7 +1182,9 @@
           <t>2022-12-31</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>16547.49609375</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1044,7 +1192,9 @@
           <t>2023-01-07</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>16955.078125</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1052,7 +1202,9 @@
           <t>2023-01-14</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>20976.298828125</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1060,7 +1212,9 @@
           <t>2023-01-21</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>22777.625</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1068,7 +1222,9 @@
           <t>2023-01-28</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>23031.08984375</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1076,7 +1232,9 @@
           <t>2023-02-04</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>23331.84765625</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1084,7 +1242,9 @@
           <t>2023-02-11</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>21870.875</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1092,7 +1252,9 @@
           <t>2023-02-18</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>24641.27734375</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1100,7 +1262,9 @@
           <t>2023-02-25</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>23175.375</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1108,7 +1272,9 @@
           <t>2023-03-04</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>22353.349609375</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1116,7 +1282,9 @@
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>20632.41015625</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1124,7 +1292,9 @@
           <t>2023-03-18</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>26965.87890625</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1132,7 +1302,9 @@
           <t>2023-03-25</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>27494.70703125</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1140,7 +1312,9 @@
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>28411.03515625</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1148,7 +1322,9 @@
           <t>2023-04-08</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>27947.794921875</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1156,7 +1332,9 @@
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>30318.49609375</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1164,7 +1342,9 @@
           <t>2023-04-22</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>27817.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1172,7 +1352,9 @@
           <t>2023-04-29</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>29248.48828125</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1180,7 +1362,9 @@
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>28904.623046875</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1188,7 +1372,9 @@
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>26784.078125</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1196,7 +1382,9 @@
           <t>2023-05-20</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>27129.5859375</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1204,7 +1392,9 @@
           <t>2023-05-27</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>26868.353515625</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1212,7 +1402,9 @@
           <t>2023-06-03</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>27075.12890625</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1220,7 +1412,9 @@
           <t>2023-06-10</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>25851.240234375</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1228,7 +1422,9 @@
           <t>2023-06-17</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>26510.67578125</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1236,7 +1432,9 @@
           <t>2023-06-24</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>30548.6953125</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1244,7 +1442,9 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>30590.078125</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1252,7 +1452,9 @@
           <t>2023-07-08</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="n">
+        <v>30292.541015625</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1260,7 +1462,9 @@
           <t>2023-07-15</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>30295.806640625</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1268,7 +1472,9 @@
           <t>2023-07-22</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>29771.802734375</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1276,7 +1482,9 @@
           <t>2023-07-29</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" t="n">
+        <v>29356.91796875</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1284,7 +1492,9 @@
           <t>2023-08-05</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="n">
+        <v>29042.126953125</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1292,7 +1502,9 @@
           <t>2023-08-12</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
+      <c r="B107" t="n">
+        <v>29415.96484375</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1300,7 +1512,9 @@
           <t>2023-08-19</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>26096.205078125</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1308,7 +1522,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>26008.462890625</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1316,7 +1532,9 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>25868.798828125</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1324,7 +1542,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>25895.677734375</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1332,7 +1552,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
+      <c r="B112" t="n">
+        <v>26568.28125</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1340,7 +1562,9 @@
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>26579.390625</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1348,7 +1572,9 @@
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
+      <c r="B114" t="n">
+        <v>26967.916015625</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1356,7 +1582,9 @@
           <t>2023-10-07</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>27968.83984375</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1364,7 +1592,9 @@
           <t>2023-10-14</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>26861.70703125</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1372,7 +1602,9 @@
           <t>2023-10-21</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>29918.412109375</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1380,7 +1612,9 @@
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>34089.57421875</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1388,7 +1622,9 @@
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>35082.1953125</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1396,7 +1632,9 @@
           <t>2023-11-11</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>37138.05078125</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1404,7 +1642,9 @@
           <t>2023-11-18</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>36585.703125</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1412,7 +1652,9 @@
           <t>2023-11-25</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
+      <c r="B122" t="n">
+        <v>37796.79296875</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1420,7 +1662,9 @@
           <t>2023-12-02</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" t="n">
+        <v>39476.33203125</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1428,7 +1672,9 @@
           <t>2023-12-09</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>43725.984375</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1436,7 +1682,9 @@
           <t>2023-12-16</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
+      <c r="B125" t="n">
+        <v>42240.1171875</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1444,7 +1692,9 @@
           <t>2023-12-23</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
+      <c r="B126" t="n">
+        <v>43739.54296875</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1452,7 +1702,9 @@
           <t>2023-12-30</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>42156.90234375</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1460,7 +1712,9 @@
           <t>2024-01-06</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
+      <c r="B128" t="n">
+        <v>43989.1953125</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1468,7 +1722,9 @@
           <t>2024-01-13</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>42842.3828125</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1476,7 +1732,9 @@
           <t>2024-01-20</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
+      <c r="B130" t="n">
+        <v>41665.5859375</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1484,7 +1742,9 @@
           <t>2024-01-27</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
+      <c r="B131" t="n">
+        <v>42120.0546875</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1492,7 +1752,9 @@
           <t>2024-02-03</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>42992.25</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1500,7 +1762,9 @@
           <t>2024-02-10</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="n">
+        <v>47771.27734375</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1508,7 +1772,9 @@
           <t>2024-02-17</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
+      <c r="B134" t="n">
+        <v>51662.99609375</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1516,7 +1782,9 @@
           <t>2024-02-24</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
+      <c r="B135" t="n">
+        <v>51571.1015625</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1524,7 +1792,9 @@
           <t>2024-03-02</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>62029.84765625</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -1532,7 +1802,9 @@
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
+      <c r="B137" t="n">
+        <v>68498.8828125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -1540,7 +1812,9 @@
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
+      <c r="B138" t="n">
+        <v>65315.1171875</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -1548,7 +1822,9 @@
           <t>2024-03-23</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>64062.203125</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -1556,7 +1832,9 @@
           <t>2024-03-30</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
+      <c r="B140" t="n">
+        <v>69645.3046875</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -1564,7 +1842,9 @@
           <t>2024-04-06</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>68896.109375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -1572,7 +1852,9 @@
           <t>2024-04-13</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>63821.47265625</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -1580,7 +1862,9 @@
           <t>2024-04-20</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
+      <c r="B143" t="n">
+        <v>64994.44140625</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -1588,7 +1872,9 @@
           <t>2024-04-27</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>63419.140625</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -1596,7 +1882,9 @@
           <t>2024-05-04</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
+      <c r="B145" t="n">
+        <v>63891.47265625</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -1604,7 +1892,9 @@
           <t>2024-05-11</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="n">
+        <v>60793.7109375</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -1612,7 +1902,9 @@
           <t>2024-05-18</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="n">
+        <v>66940.8046875</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -1620,7 +1912,9 @@
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>69265.9453125</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -1628,7 +1922,9 @@
           <t>2024-06-01</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
+      <c r="B149" t="n">
+        <v>67706.9375</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -1636,7 +1932,9 @@
           <t>2024-06-08</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="n">
+        <v>69305.7734375</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -1644,7 +1942,9 @@
           <t>2024-06-15</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
+      <c r="B151" t="n">
+        <v>66191</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -1652,7 +1952,9 @@
           <t>2024-06-22</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>64252.578125</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -1660,7 +1962,9 @@
           <t>2024-06-29</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>60887.37890625</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -1668,7 +1972,9 @@
           <t>2024-07-06</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="n">
+        <v>58303.5390625</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -1676,7 +1982,9 @@
           <t>2024-07-13</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="n">
+        <v>59231.953125</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -1684,7 +1992,9 @@
           <t>2024-07-20</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
+      <c r="B156" t="n">
+        <v>67163.6484375</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -1692,7 +2002,9 @@
           <t>2024-07-27</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
+      <c r="B157" t="n">
+        <v>67813.3359375</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -1700,7 +2012,9 @@
           <t>2024-08-03</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
+      <c r="B158" t="n">
+        <v>60680.09375</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -1708,7 +2022,9 @@
           <t>2024-08-10</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
+      <c r="B159" t="n">
+        <v>60945.8125</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -1716,7 +2032,9 @@
           <t>2024-08-17</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
+      <c r="B160" t="n">
+        <v>59478.97265625</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -1724,7 +2042,9 @@
           <t>2024-08-24</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
+      <c r="B161" t="n">
+        <v>64178.9921875</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -1732,7 +2052,9 @@
           <t>2024-08-31</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
+      <c r="B162" t="n">
+        <v>58969.8984375</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -1740,7 +2062,9 @@
           <t>2024-09-07</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="n">
+        <v>54139.6875</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -1748,7 +2072,9 @@
           <t>2024-09-14</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="n">
+        <v>60005.12109375</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -1756,7 +2082,9 @@
           <t>2024-09-21</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
+      <c r="B165" t="n">
+        <v>63394.83984375</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -1764,7 +2092,9 @@
           <t>2024-09-28</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr"/>
+      <c r="B166" t="n">
+        <v>65887.6484375</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -1772,7 +2102,9 @@
           <t>2024-10-05</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
+      <c r="B167" t="n">
+        <v>62089.94921875</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -1780,7 +2112,9 @@
           <t>2024-10-12</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
+      <c r="B168" t="n">
+        <v>63193.0234375</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -1788,7 +2122,9 @@
           <t>2024-10-19</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
+      <c r="B169" t="n">
+        <v>68362.734375</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -1796,7 +2132,9 @@
           <t>2024-10-26</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
+      <c r="B170" t="n">
+        <v>67014.6953125</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -1804,7 +2142,9 @@
           <t>2024-11-02</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr"/>
+      <c r="B171" t="n">
+        <v>69289.2734375</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -1812,7 +2152,9 @@
           <t>2024-11-09</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr"/>
+      <c r="B172" t="n">
+        <v>76778.8671875</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -1820,7 +2162,9 @@
           <t>2024-11-16</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
+      <c r="B173" t="n">
+        <v>90558.4765625</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -1828,7 +2172,9 @@
           <t>2024-11-23</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="n">
+        <v>97777.28125</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -1836,7 +2182,9 @@
           <t>2024-11-30</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="n">
+        <v>96449.0546875</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -1844,7 +2192,9 @@
           <t>2024-12-07</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
+      <c r="B176" t="n">
+        <v>99923.3359375</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -1852,7 +2202,9 @@
           <t>2024-12-14</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="n">
+        <v>101372.96875</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -1860,7 +2212,9 @@
           <t>2024-12-21</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr"/>
+      <c r="B178" t="n">
+        <v>97224.7265625</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -1868,7 +2222,9 @@
           <t>2024-12-28</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="n">
+        <v>95163.9296875</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -1876,7 +2232,9 @@
           <t>2025-01-04</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="n">
+        <v>98236.2265625</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -1884,7 +2242,9 @@
           <t>2025-01-11</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr"/>
+      <c r="B181" t="n">
+        <v>94566.59375</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -1892,7 +2252,9 @@
           <t>2025-01-18</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr"/>
+      <c r="B182" t="n">
+        <v>104408.0703125</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -1900,7 +2262,9 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>104714.6484375</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -1908,7 +2272,9 @@
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
+      <c r="B184" t="n">
+        <v>100655.90625</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -1916,7 +2282,9 @@
           <t>2025-02-08</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
+      <c r="B185" t="n">
+        <v>96482.453125</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -1924,7 +2292,9 @@
           <t>2025-02-15</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
+      <c r="B186" t="n">
+        <v>97580.3515625</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -1932,7 +2302,9 @@
           <t>2025-02-22</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
+      <c r="B187" t="n">
+        <v>96577.7578125</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -1940,7 +2312,9 @@
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>86031.9140625</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -1948,7 +2322,9 @@
           <t>2025-03-08</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="n">
+        <v>86154.59375</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -1956,7 +2332,9 @@
           <t>2025-03-15</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>84343.109375</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -1964,7 +2342,9 @@
           <t>2025-03-22</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>83832.484375</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -1972,7 +2352,9 @@
           <t>2025-03-29</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>82597.5859375</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -1980,7 +2362,9 @@
           <t>2025-04-05</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>83504.796875</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -1988,7 +2372,9 @@
           <t>2025-04-12</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>85287.109375</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -1996,7 +2382,9 @@
           <t>2025-04-19</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>85063.4140625</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2004,7 +2392,9 @@
           <t>2025-04-26</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>94646.9296875</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2012,7 +2402,9 @@
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>95891.796875</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2020,7 +2412,9 @@
           <t>2025-05-10</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>104696.328125</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2028,7 +2422,9 @@
           <t>2025-05-17</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
+      <c r="B199" t="n">
+        <v>103191.0859375</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2036,7 +2432,9 @@
           <t>2025-05-24</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>107791.15625</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2044,7 +2442,9 @@
           <t>2025-05-31</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>104638.09375</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2052,7 +2452,9 @@
           <t>2025-06-07</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>105615.625</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2060,7 +2462,9 @@
           <t>2025-06-14</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr"/>
+      <c r="B203" t="n">
+        <v>105472.40625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2104,19 +2508,11 @@
           <t>2021-08-06</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14835.759766
-Name: 2021-08-06 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4436.52002
-Name: 2021-08-06 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B2" t="n">
+        <v>14835.759765625</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4436.52001953125</v>
       </c>
     </row>
     <row r="3">
@@ -2125,19 +2521,11 @@
           <t>2021-08-13</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14822.900391
-Name: 2021-08-13 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4468.0
-Name: 2021-08-13 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B3" t="n">
+        <v>14822.900390625</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4468</v>
       </c>
     </row>
     <row r="4">
@@ -2146,19 +2534,11 @@
           <t>2021-08-20</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14714.660156
-Name: 2021-08-20 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4441.669922
-Name: 2021-08-20 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B4" t="n">
+        <v>14714.66015625</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4441.669921875</v>
       </c>
     </row>
     <row r="5">
@@ -2167,19 +2547,11 @@
           <t>2021-08-27</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15129.5
-Name: 2021-08-27 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4509.370117
-Name: 2021-08-27 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B5" t="n">
+        <v>15129.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4509.3701171875</v>
       </c>
     </row>
     <row r="6">
@@ -2188,19 +2560,11 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15363.519531
-Name: 2021-09-03 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4535.430176
-Name: 2021-09-03 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B6" t="n">
+        <v>15363.51953125</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4535.43017578125</v>
       </c>
     </row>
     <row r="7">
@@ -2209,19 +2573,11 @@
           <t>2021-09-10</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15115.490234
-Name: 2021-09-10 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4458.580078
-Name: 2021-09-10 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B7" t="n">
+        <v>15115.490234375</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4458.580078125</v>
       </c>
     </row>
     <row r="8">
@@ -2230,19 +2586,11 @@
           <t>2021-09-17</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15043.969727
-Name: 2021-09-17 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4432.990234
-Name: 2021-09-17 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B8" t="n">
+        <v>15043.9697265625</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4432.990234375</v>
       </c>
     </row>
     <row r="9">
@@ -2251,19 +2599,11 @@
           <t>2021-09-24</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15047.700195
-Name: 2021-09-24 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4455.47998
-Name: 2021-09-24 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B9" t="n">
+        <v>15047.7001953125</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4455.47998046875</v>
       </c>
     </row>
     <row r="10">
@@ -2272,19 +2612,11 @@
           <t>2021-10-01</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14566.700195
-Name: 2021-10-01 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4357.040039
-Name: 2021-10-01 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B10" t="n">
+        <v>14566.7001953125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4357.0400390625</v>
       </c>
     </row>
     <row r="11">
@@ -2293,19 +2625,11 @@
           <t>2021-10-08</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14579.540039
-Name: 2021-10-08 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4391.339844
-Name: 2021-10-08 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B11" t="n">
+        <v>14579.5400390625</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4391.33984375</v>
       </c>
     </row>
     <row r="12">
@@ -2314,19 +2638,11 @@
           <t>2021-10-15</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14897.339844
-Name: 2021-10-15 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4471.370117
-Name: 2021-10-15 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B12" t="n">
+        <v>14897.33984375</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4471.3701171875</v>
       </c>
     </row>
     <row r="13">
@@ -2335,19 +2651,11 @@
           <t>2021-10-22</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15090.200195
-Name: 2021-10-22 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4544.899902
-Name: 2021-10-22 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B13" t="n">
+        <v>15090.2001953125</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4544.89990234375</v>
       </c>
     </row>
     <row r="14">
@@ -2356,19 +2664,11 @@
           <t>2021-10-29</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15498.389648
-Name: 2021-10-29 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4605.379883
-Name: 2021-10-29 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B14" t="n">
+        <v>15498.3896484375</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4605.3798828125</v>
       </c>
     </row>
     <row r="15">
@@ -2377,19 +2677,11 @@
           <t>2021-11-05</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15971.589844
-Name: 2021-11-05 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4697.529785
-Name: 2021-11-05 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B15" t="n">
+        <v>15971.58984375</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4697.52978515625</v>
       </c>
     </row>
     <row r="16">
@@ -2398,19 +2690,11 @@
           <t>2021-11-12</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15860.959961
-Name: 2021-11-12 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4682.850098
-Name: 2021-11-12 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B16" t="n">
+        <v>15860.9599609375</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4682.85009765625</v>
       </c>
     </row>
     <row r="17">
@@ -2419,19 +2703,11 @@
           <t>2021-11-19</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16057.44043
-Name: 2021-11-19 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4697.959961
-Name: 2021-11-19 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B17" t="n">
+        <v>16057.4404296875</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4697.9599609375</v>
       </c>
     </row>
     <row r="18">
@@ -2440,19 +2716,11 @@
           <t>2021-11-26</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15491.660156
-Name: 2021-11-26 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4594.620117
-Name: 2021-11-26 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B18" t="n">
+        <v>15491.66015625</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4594.6201171875</v>
       </c>
     </row>
     <row r="19">
@@ -2461,19 +2729,11 @@
           <t>2021-12-03</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15085.469727
-Name: 2021-12-03 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4538.430176
-Name: 2021-12-03 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B19" t="n">
+        <v>15085.4697265625</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4538.43017578125</v>
       </c>
     </row>
     <row r="20">
@@ -2482,19 +2742,11 @@
           <t>2021-12-10</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15630.599609
-Name: 2021-12-10 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4712.02002
-Name: 2021-12-10 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B20" t="n">
+        <v>15630.599609375</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4712.02001953125</v>
       </c>
     </row>
     <row r="21">
@@ -2503,19 +2755,11 @@
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15169.679688
-Name: 2021-12-17 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4620.640137
-Name: 2021-12-17 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B21" t="n">
+        <v>15169.6796875</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4620.64013671875</v>
       </c>
     </row>
     <row r="22">
@@ -2533,19 +2777,11 @@
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15644.969727
-Name: 2021-12-31 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4766.180176
-Name: 2021-12-31 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B23" t="n">
+        <v>15644.9697265625</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4766.18017578125</v>
       </c>
     </row>
     <row r="24">
@@ -2554,19 +2790,11 @@
           <t>2022-01-07</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14935.900391
-Name: 2022-01-07 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4677.029785
-Name: 2022-01-07 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B24" t="n">
+        <v>14935.900390625</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4677.02978515625</v>
       </c>
     </row>
     <row r="25">
@@ -2575,19 +2803,11 @@
           <t>2022-01-14</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14893.75
-Name: 2022-01-14 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4662.850098
-Name: 2022-01-14 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B25" t="n">
+        <v>14893.75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4662.85009765625</v>
       </c>
     </row>
     <row r="26">
@@ -2596,19 +2816,11 @@
           <t>2022-01-21</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13768.919922
-Name: 2022-01-21 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4397.939941
-Name: 2022-01-21 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B26" t="n">
+        <v>13768.919921875</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4397.93994140625</v>
       </c>
     </row>
     <row r="27">
@@ -2617,19 +2829,11 @@
           <t>2022-01-28</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13770.570312
-Name: 2022-01-28 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4431.850098
-Name: 2022-01-28 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B27" t="n">
+        <v>13770.5703125</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4431.85009765625</v>
       </c>
     </row>
     <row r="28">
@@ -2638,19 +2842,11 @@
           <t>2022-02-04</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14098.009766
-Name: 2022-02-04 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4500.529785
-Name: 2022-02-04 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B28" t="n">
+        <v>14098.009765625</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4500.52978515625</v>
       </c>
     </row>
     <row r="29">
@@ -2659,19 +2855,11 @@
           <t>2022-02-11</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13791.150391
-Name: 2022-02-11 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4418.640137
-Name: 2022-02-11 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B29" t="n">
+        <v>13791.150390625</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4418.64013671875</v>
       </c>
     </row>
     <row r="30">
@@ -2680,19 +2868,11 @@
           <t>2022-02-18</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13548.070312
-Name: 2022-02-18 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4348.870117
-Name: 2022-02-18 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B30" t="n">
+        <v>13548.0703125</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4348.8701171875</v>
       </c>
     </row>
     <row r="31">
@@ -2701,19 +2881,11 @@
           <t>2022-02-25</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13694.620117
-Name: 2022-02-25 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4384.649902
-Name: 2022-02-25 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B31" t="n">
+        <v>13694.6201171875</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4384.64990234375</v>
       </c>
     </row>
     <row r="32">
@@ -2722,19 +2894,11 @@
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13313.44043
-Name: 2022-03-04 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4328.870117
-Name: 2022-03-04 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B32" t="n">
+        <v>13313.4404296875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4328.8701171875</v>
       </c>
     </row>
     <row r="33">
@@ -2743,19 +2907,11 @@
           <t>2022-03-11</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12843.80957
-Name: 2022-03-11 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4204.310059
-Name: 2022-03-11 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B33" t="n">
+        <v>12843.8095703125</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4204.31005859375</v>
       </c>
     </row>
     <row r="34">
@@ -2764,19 +2920,11 @@
           <t>2022-03-18</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13893.839844
-Name: 2022-03-18 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4463.120117
-Name: 2022-03-18 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B34" t="n">
+        <v>13893.83984375</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4463.1201171875</v>
       </c>
     </row>
     <row r="35">
@@ -2785,19 +2933,11 @@
           <t>2022-03-25</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14169.299805
-Name: 2022-03-25 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4543.060059
-Name: 2022-03-25 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B35" t="n">
+        <v>14169.2998046875</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4543.06005859375</v>
       </c>
     </row>
     <row r="36">
@@ -2806,19 +2946,11 @@
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14261.5
-Name: 2022-04-01 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4545.859863
-Name: 2022-04-01 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B36" t="n">
+        <v>14261.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4545.85986328125</v>
       </c>
     </row>
     <row r="37">
@@ -2827,19 +2959,11 @@
           <t>2022-04-08</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13711.0
-Name: 2022-04-08 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4488.279785
-Name: 2022-04-08 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B37" t="n">
+        <v>13711</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4488.27978515625</v>
       </c>
     </row>
     <row r="38">
@@ -2857,19 +2981,11 @@
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12839.290039
-Name: 2022-04-22 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4271.779785
-Name: 2022-04-22 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B39" t="n">
+        <v>12839.2900390625</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4271.77978515625</v>
       </c>
     </row>
     <row r="40">
@@ -2878,19 +2994,11 @@
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12334.639648
-Name: 2022-04-29 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4131.930176
-Name: 2022-04-29 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B40" t="n">
+        <v>12334.6396484375</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4131.93017578125</v>
       </c>
     </row>
     <row r="41">
@@ -2899,19 +3007,11 @@
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12144.660156
-Name: 2022-05-06 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4123.339844
-Name: 2022-05-06 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B41" t="n">
+        <v>12144.66015625</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4123.33984375</v>
       </c>
     </row>
     <row r="42">
@@ -2920,19 +3020,11 @@
           <t>2022-05-13</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11805.0
-Name: 2022-05-13 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4023.889893
-Name: 2022-05-13 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B42" t="n">
+        <v>11805</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4023.889892578125</v>
       </c>
     </row>
     <row r="43">
@@ -2941,19 +3033,11 @@
           <t>2022-05-20</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11354.620117
-Name: 2022-05-20 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3901.360107
-Name: 2022-05-20 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B43" t="n">
+        <v>11354.6201171875</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3901.360107421875</v>
       </c>
     </row>
     <row r="44">
@@ -2962,19 +3046,11 @@
           <t>2022-05-27</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12131.129883
-Name: 2022-05-27 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4158.240234
-Name: 2022-05-27 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B44" t="n">
+        <v>12131.1298828125</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4158.240234375</v>
       </c>
     </row>
     <row r="45">
@@ -2983,19 +3059,11 @@
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12012.730469
-Name: 2022-06-03 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4108.540039
-Name: 2022-06-03 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B45" t="n">
+        <v>12012.73046875</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4108.5400390625</v>
       </c>
     </row>
     <row r="46">
@@ -3004,19 +3072,11 @@
           <t>2022-06-10</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11340.019531
-Name: 2022-06-10 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3900.860107
-Name: 2022-06-10 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B46" t="n">
+        <v>11340.01953125</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3900.860107421875</v>
       </c>
     </row>
     <row r="47">
@@ -3025,19 +3085,11 @@
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10798.349609
-Name: 2022-06-17 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3674.840088
-Name: 2022-06-17 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B47" t="n">
+        <v>10798.349609375</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3674.840087890625</v>
       </c>
     </row>
     <row r="48">
@@ -3046,19 +3098,11 @@
           <t>2022-06-24</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11607.620117
-Name: 2022-06-24 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3911.73999
-Name: 2022-06-24 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B48" t="n">
+        <v>11607.6201171875</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3911.739990234375</v>
       </c>
     </row>
     <row r="49">
@@ -3067,19 +3111,11 @@
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11127.849609
-Name: 2022-07-01 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3825.330078
-Name: 2022-07-01 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B49" t="n">
+        <v>11127.849609375</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3825.330078125</v>
       </c>
     </row>
     <row r="50">
@@ -3088,19 +3124,11 @@
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11635.30957
-Name: 2022-07-08 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3899.379883
-Name: 2022-07-08 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B50" t="n">
+        <v>11635.3095703125</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3899.3798828125</v>
       </c>
     </row>
     <row r="51">
@@ -3109,19 +3137,11 @@
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11452.419922
-Name: 2022-07-15 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3863.159912
-Name: 2022-07-15 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B51" t="n">
+        <v>11452.419921875</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3863.159912109375</v>
       </c>
     </row>
     <row r="52">
@@ -3130,19 +3150,11 @@
           <t>2022-07-22</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11834.110352
-Name: 2022-07-22 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3961.629883
-Name: 2022-07-22 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B52" t="n">
+        <v>11834.1103515625</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3961.6298828125</v>
       </c>
     </row>
     <row r="53">
@@ -3151,19 +3163,11 @@
           <t>2022-07-29</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12390.69043
-Name: 2022-07-29 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4130.290039
-Name: 2022-07-29 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B53" t="n">
+        <v>12390.6904296875</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4130.2900390625</v>
       </c>
     </row>
     <row r="54">
@@ -3172,19 +3176,11 @@
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12657.549805
-Name: 2022-08-05 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4145.189941
-Name: 2022-08-05 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B54" t="n">
+        <v>12657.5498046875</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4145.18994140625</v>
       </c>
     </row>
     <row r="55">
@@ -3193,19 +3189,11 @@
           <t>2022-08-12</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13047.19043
-Name: 2022-08-12 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4280.149902
-Name: 2022-08-12 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B55" t="n">
+        <v>13047.1904296875</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4280.14990234375</v>
       </c>
     </row>
     <row r="56">
@@ -3214,19 +3202,11 @@
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12705.219727
-Name: 2022-08-19 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4228.47998
-Name: 2022-08-19 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B56" t="n">
+        <v>12705.2197265625</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4228.47998046875</v>
       </c>
     </row>
     <row r="57">
@@ -3235,19 +3215,11 @@
           <t>2022-08-26</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12141.709961
-Name: 2022-08-26 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4057.659912
-Name: 2022-08-26 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B57" t="n">
+        <v>12141.7099609375</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4057.659912109375</v>
       </c>
     </row>
     <row r="58">
@@ -3256,19 +3228,11 @@
           <t>2022-09-02</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11630.860352
-Name: 2022-09-02 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3924.26001
-Name: 2022-09-02 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B58" t="n">
+        <v>11630.8603515625</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3924.260009765625</v>
       </c>
     </row>
     <row r="59">
@@ -3277,19 +3241,11 @@
           <t>2022-09-09</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12112.30957
-Name: 2022-09-09 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4067.360107
-Name: 2022-09-09 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B59" t="n">
+        <v>12112.3095703125</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4067.360107421875</v>
       </c>
     </row>
     <row r="60">
@@ -3298,19 +3254,11 @@
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11448.400391
-Name: 2022-09-16 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3873.330078
-Name: 2022-09-16 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B60" t="n">
+        <v>11448.400390625</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3873.330078125</v>
       </c>
     </row>
     <row r="61">
@@ -3319,19 +3267,11 @@
           <t>2022-09-23</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10867.929688
-Name: 2022-09-23 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3693.22998
-Name: 2022-09-23 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B61" t="n">
+        <v>10867.9296875</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3693.22998046875</v>
       </c>
     </row>
     <row r="62">
@@ -3340,19 +3280,11 @@
           <t>2022-09-30</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10575.620117
-Name: 2022-09-30 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3585.620117
-Name: 2022-09-30 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B62" t="n">
+        <v>10575.6201171875</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3585.6201171875</v>
       </c>
     </row>
     <row r="63">
@@ -3361,19 +3293,11 @@
           <t>2022-10-07</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10652.400391
-Name: 2022-10-07 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3639.659912
-Name: 2022-10-07 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B63" t="n">
+        <v>10652.400390625</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3639.659912109375</v>
       </c>
     </row>
     <row r="64">
@@ -3382,19 +3306,11 @@
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10321.389648
-Name: 2022-10-14 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3583.070068
-Name: 2022-10-14 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B64" t="n">
+        <v>10321.3896484375</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3583.070068359375</v>
       </c>
     </row>
     <row r="65">
@@ -3403,19 +3319,11 @@
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10859.719727
-Name: 2022-10-21 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3752.75
-Name: 2022-10-21 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B65" t="n">
+        <v>10859.7197265625</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3752.75</v>
       </c>
     </row>
     <row r="66">
@@ -3424,19 +3332,11 @@
           <t>2022-10-28</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11102.450195
-Name: 2022-10-28 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3901.060059
-Name: 2022-10-28 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B66" t="n">
+        <v>11102.4501953125</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3901.06005859375</v>
       </c>
     </row>
     <row r="67">
@@ -3445,19 +3345,11 @@
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10475.25
-Name: 2022-11-04 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3770.550049
-Name: 2022-11-04 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B67" t="n">
+        <v>10475.25</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3770.550048828125</v>
       </c>
     </row>
     <row r="68">
@@ -3466,19 +3358,11 @@
           <t>2022-11-11</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11323.330078
-Name: 2022-11-11 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3992.929932
-Name: 2022-11-11 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B68" t="n">
+        <v>11323.330078125</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3992.929931640625</v>
       </c>
     </row>
     <row r="69">
@@ -3487,19 +3371,11 @@
           <t>2022-11-18</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11146.05957
-Name: 2022-11-18 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3965.340088
-Name: 2022-11-18 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B69" t="n">
+        <v>11146.0595703125</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3965.340087890625</v>
       </c>
     </row>
     <row r="70">
@@ -3508,19 +3384,11 @@
           <t>2022-11-25</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11226.360352
-Name: 2022-11-25 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4026.120117
-Name: 2022-11-25 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B70" t="n">
+        <v>11226.3603515625</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4026.1201171875</v>
       </c>
     </row>
     <row r="71">
@@ -3529,19 +3397,11 @@
           <t>2022-12-02</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11461.5
-Name: 2022-12-02 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4071.699951
-Name: 2022-12-02 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B71" t="n">
+        <v>11461.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4071.699951171875</v>
       </c>
     </row>
     <row r="72">
@@ -3550,19 +3410,11 @@
           <t>2022-12-09</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11004.620117
-Name: 2022-12-09 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3934.379883
-Name: 2022-12-09 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B72" t="n">
+        <v>11004.6201171875</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3934.3798828125</v>
       </c>
     </row>
     <row r="73">
@@ -3571,19 +3423,11 @@
           <t>2022-12-16</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10705.410156
-Name: 2022-12-16 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3852.360107
-Name: 2022-12-16 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B73" t="n">
+        <v>10705.41015625</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3852.360107421875</v>
       </c>
     </row>
     <row r="74">
@@ -3592,19 +3436,11 @@
           <t>2022-12-23</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10497.860352
-Name: 2022-12-23 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3844.820068
-Name: 2022-12-23 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B74" t="n">
+        <v>10497.8603515625</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3844.820068359375</v>
       </c>
     </row>
     <row r="75">
@@ -3613,19 +3449,11 @@
           <t>2022-12-30</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10466.480469
-Name: 2022-12-30 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3839.5
-Name: 2022-12-30 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B75" t="n">
+        <v>10466.48046875</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3839.5</v>
       </c>
     </row>
     <row r="76">
@@ -3634,19 +3462,11 @@
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    10569.290039
-Name: 2023-01-06 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3895.080078
-Name: 2023-01-06 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B76" t="n">
+        <v>10569.2900390625</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3895.080078125</v>
       </c>
     </row>
     <row r="77">
@@ -3655,19 +3475,11 @@
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11079.160156
-Name: 2023-01-13 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3999.090088
-Name: 2023-01-13 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B77" t="n">
+        <v>11079.16015625</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3999.090087890625</v>
       </c>
     </row>
     <row r="78">
@@ -3676,19 +3488,11 @@
           <t>2023-01-20</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11140.429688
-Name: 2023-01-20 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3972.610107
-Name: 2023-01-20 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B78" t="n">
+        <v>11140.4296875</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3972.610107421875</v>
       </c>
     </row>
     <row r="79">
@@ -3697,19 +3501,11 @@
           <t>2023-01-27</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11621.709961
-Name: 2023-01-27 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4070.560059
-Name: 2023-01-27 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B79" t="n">
+        <v>11621.7099609375</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4070.56005859375</v>
       </c>
     </row>
     <row r="80">
@@ -3718,19 +3514,11 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12006.950195
-Name: 2023-02-03 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4136.47998
-Name: 2023-02-03 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B80" t="n">
+        <v>12006.9501953125</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4136.47998046875</v>
       </c>
     </row>
     <row r="81">
@@ -3739,19 +3527,11 @@
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11718.120117
-Name: 2023-02-10 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4090.459961
-Name: 2023-02-10 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B81" t="n">
+        <v>11718.1201171875</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4090.4599609375</v>
       </c>
     </row>
     <row r="82">
@@ -3760,19 +3540,11 @@
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11787.269531
-Name: 2023-02-17 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4079.090088
-Name: 2023-02-17 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B82" t="n">
+        <v>11787.26953125</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4079.090087890625</v>
       </c>
     </row>
     <row r="83">
@@ -3781,19 +3553,11 @@
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11394.94043
-Name: 2023-02-24 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3970.040039
-Name: 2023-02-24 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B83" t="n">
+        <v>11394.9404296875</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3970.0400390625</v>
       </c>
     </row>
     <row r="84">
@@ -3802,19 +3566,11 @@
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11689.009766
-Name: 2023-03-03 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4045.639893
-Name: 2023-03-03 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B84" t="n">
+        <v>11689.009765625</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4045.639892578125</v>
       </c>
     </row>
     <row r="85">
@@ -3823,19 +3579,11 @@
           <t>2023-03-10</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11138.889648
-Name: 2023-03-10 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3861.590088
-Name: 2023-03-10 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B85" t="n">
+        <v>11138.8896484375</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3861.590087890625</v>
       </c>
     </row>
     <row r="86">
@@ -3844,19 +3592,11 @@
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11630.509766
-Name: 2023-03-17 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3916.639893
-Name: 2023-03-17 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B86" t="n">
+        <v>11630.509765625</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3916.639892578125</v>
       </c>
     </row>
     <row r="87">
@@ -3865,19 +3605,11 @@
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    11823.959961
-Name: 2023-03-24 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    3970.98999
-Name: 2023-03-24 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B87" t="n">
+        <v>11823.9599609375</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3970.989990234375</v>
       </c>
     </row>
     <row r="88">
@@ -3886,19 +3618,11 @@
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12221.910156
-Name: 2023-03-31 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4109.310059
-Name: 2023-03-31 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B88" t="n">
+        <v>12221.91015625</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4109.31005859375</v>
       </c>
     </row>
     <row r="89">
@@ -3916,19 +3640,11 @@
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12123.469727
-Name: 2023-04-14 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4137.640137
-Name: 2023-04-14 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B90" t="n">
+        <v>12123.4697265625</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4137.64013671875</v>
       </c>
     </row>
     <row r="91">
@@ -3937,19 +3653,11 @@
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12072.459961
-Name: 2023-04-21 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4133.52002
-Name: 2023-04-21 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B91" t="n">
+        <v>12072.4599609375</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4133.52001953125</v>
       </c>
     </row>
     <row r="92">
@@ -3958,19 +3666,11 @@
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12226.580078
-Name: 2023-04-28 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4169.47998
-Name: 2023-04-28 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B92" t="n">
+        <v>12226.580078125</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4169.47998046875</v>
       </c>
     </row>
     <row r="93">
@@ -3979,19 +3679,11 @@
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12235.410156
-Name: 2023-05-05 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4136.25
-Name: 2023-05-05 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B93" t="n">
+        <v>12235.41015625</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4136.25</v>
       </c>
     </row>
     <row r="94">
@@ -4000,19 +3692,11 @@
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12284.740234
-Name: 2023-05-12 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4124.080078
-Name: 2023-05-12 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B94" t="n">
+        <v>12284.740234375</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4124.080078125</v>
       </c>
     </row>
     <row r="95">
@@ -4021,19 +3705,11 @@
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12657.900391
-Name: 2023-05-19 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4191.97998
-Name: 2023-05-19 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B95" t="n">
+        <v>12657.900390625</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4191.97998046875</v>
       </c>
     </row>
     <row r="96">
@@ -4042,19 +3718,11 @@
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12975.69043
-Name: 2023-05-26 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4205.450195
-Name: 2023-05-26 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B96" t="n">
+        <v>12975.6904296875</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4205.4501953125</v>
       </c>
     </row>
     <row r="97">
@@ -4063,19 +3731,11 @@
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13240.769531
-Name: 2023-06-02 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4282.370117
-Name: 2023-06-02 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B97" t="n">
+        <v>13240.76953125</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4282.3701171875</v>
       </c>
     </row>
     <row r="98">
@@ -4084,19 +3744,11 @@
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13259.139648
-Name: 2023-06-09 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4298.859863
-Name: 2023-06-09 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B98" t="n">
+        <v>13259.1396484375</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4298.85986328125</v>
       </c>
     </row>
     <row r="99">
@@ -4105,19 +3757,11 @@
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13689.570312
-Name: 2023-06-16 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4409.589844
-Name: 2023-06-16 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B99" t="n">
+        <v>13689.5703125</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4409.58984375</v>
       </c>
     </row>
     <row r="100">
@@ -4126,19 +3770,11 @@
           <t>2023-06-23</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13492.519531
-Name: 2023-06-23 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4348.330078
-Name: 2023-06-23 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B100" t="n">
+        <v>13492.51953125</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4348.330078125</v>
       </c>
     </row>
     <row r="101">
@@ -4147,19 +3783,11 @@
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13787.919922
-Name: 2023-06-30 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4450.379883
-Name: 2023-06-30 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B101" t="n">
+        <v>13787.919921875</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4450.3798828125</v>
       </c>
     </row>
     <row r="102">
@@ -4168,19 +3796,11 @@
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13660.719727
-Name: 2023-07-07 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4398.950195
-Name: 2023-07-07 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B102" t="n">
+        <v>13660.7197265625</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4398.9501953125</v>
       </c>
     </row>
     <row r="103">
@@ -4189,19 +3809,11 @@
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14113.700195
-Name: 2023-07-14 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4505.419922
-Name: 2023-07-14 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B103" t="n">
+        <v>14113.7001953125</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4505.419921875</v>
       </c>
     </row>
     <row r="104">
@@ -4210,19 +3822,11 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14032.80957
-Name: 2023-07-21 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4536.339844
-Name: 2023-07-21 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B104" t="n">
+        <v>14032.8095703125</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4536.33984375</v>
       </c>
     </row>
     <row r="105">
@@ -4231,19 +3835,11 @@
           <t>2023-07-28</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14316.660156
-Name: 2023-07-28 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4582.22998
-Name: 2023-07-28 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B105" t="n">
+        <v>14316.66015625</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4582.22998046875</v>
       </c>
     </row>
     <row r="106">
@@ -4252,19 +3848,11 @@
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13909.240234
-Name: 2023-08-04 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4478.029785
-Name: 2023-08-04 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B106" t="n">
+        <v>13909.240234375</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4478.02978515625</v>
       </c>
     </row>
     <row r="107">
@@ -4273,19 +3861,11 @@
           <t>2023-08-11</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13644.849609
-Name: 2023-08-11 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4464.049805
-Name: 2023-08-11 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B107" t="n">
+        <v>13644.849609375</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4464.0498046875</v>
       </c>
     </row>
     <row r="108">
@@ -4294,19 +3874,11 @@
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13290.780273
-Name: 2023-08-18 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4369.709961
-Name: 2023-08-18 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B108" t="n">
+        <v>13290.7802734375</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4369.7099609375</v>
       </c>
     </row>
     <row r="109">
@@ -4315,19 +3887,11 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13590.650391
-Name: 2023-08-25 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4405.709961
-Name: 2023-08-25 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B109" t="n">
+        <v>13590.650390625</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4405.7099609375</v>
       </c>
     </row>
     <row r="110">
@@ -4336,19 +3900,11 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14031.80957
-Name: 2023-09-01 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4515.77002
-Name: 2023-09-01 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B110" t="n">
+        <v>14031.8095703125</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4515.77001953125</v>
       </c>
     </row>
     <row r="111">
@@ -4357,19 +3913,11 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13761.530273
-Name: 2023-09-08 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4457.490234
-Name: 2023-09-08 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B111" t="n">
+        <v>13761.5302734375</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4457.490234375</v>
       </c>
     </row>
     <row r="112">
@@ -4378,19 +3926,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13708.330078
-Name: 2023-09-15 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4450.319824
-Name: 2023-09-15 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B112" t="n">
+        <v>13708.330078125</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4450.31982421875</v>
       </c>
     </row>
     <row r="113">
@@ -4399,19 +3939,11 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13211.80957
-Name: 2023-09-22 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4320.060059
-Name: 2023-09-22 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B113" t="n">
+        <v>13211.8095703125</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4320.06005859375</v>
       </c>
     </row>
     <row r="114">
@@ -4420,19 +3952,11 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13219.320312
-Name: 2023-09-29 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4288.049805
-Name: 2023-09-29 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B114" t="n">
+        <v>13219.3203125</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4288.0498046875</v>
       </c>
     </row>
     <row r="115">
@@ -4441,19 +3965,11 @@
           <t>2023-10-06</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13431.339844
-Name: 2023-10-06 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4308.5
-Name: 2023-10-06 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B115" t="n">
+        <v>13431.33984375</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4308.5</v>
       </c>
     </row>
     <row r="116">
@@ -4462,19 +3978,11 @@
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13407.230469
-Name: 2023-10-13 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4327.779785
-Name: 2023-10-13 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B116" t="n">
+        <v>13407.23046875</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4327.77978515625</v>
       </c>
     </row>
     <row r="117">
@@ -4483,19 +3991,11 @@
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12983.80957
-Name: 2023-10-20 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4224.160156
-Name: 2023-10-20 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B117" t="n">
+        <v>12983.8095703125</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4224.16015625</v>
       </c>
     </row>
     <row r="118">
@@ -4504,19 +4004,11 @@
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    12643.009766
-Name: 2023-10-27 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4117.370117
-Name: 2023-10-27 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B118" t="n">
+        <v>12643.009765625</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4117.3701171875</v>
       </c>
     </row>
     <row r="119">
@@ -4525,19 +4017,11 @@
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13478.280273
-Name: 2023-11-03 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4358.339844
-Name: 2023-11-03 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B119" t="n">
+        <v>13478.2802734375</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4358.33984375</v>
       </c>
     </row>
     <row r="120">
@@ -4546,19 +4030,11 @@
           <t>2023-11-10</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    13798.110352
-Name: 2023-11-10 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4415.240234
-Name: 2023-11-10 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B120" t="n">
+        <v>13798.1103515625</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4415.240234375</v>
       </c>
     </row>
     <row r="121">
@@ -4567,19 +4043,11 @@
           <t>2023-11-17</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14125.480469
-Name: 2023-11-17 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4514.02002
-Name: 2023-11-17 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B121" t="n">
+        <v>14125.48046875</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4514.02001953125</v>
       </c>
     </row>
     <row r="122">
@@ -4588,19 +4056,11 @@
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14250.849609
-Name: 2023-11-24 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4559.339844
-Name: 2023-11-24 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B122" t="n">
+        <v>14250.849609375</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4559.33984375</v>
       </c>
     </row>
     <row r="123">
@@ -4609,19 +4069,11 @@
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14305.030273
-Name: 2023-12-01 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4594.629883
-Name: 2023-12-01 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B123" t="n">
+        <v>14305.0302734375</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4594.6298828125</v>
       </c>
     </row>
     <row r="124">
@@ -4630,19 +4082,11 @@
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14403.969727
-Name: 2023-12-08 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4604.370117
-Name: 2023-12-08 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B124" t="n">
+        <v>14403.9697265625</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4604.3701171875</v>
       </c>
     </row>
     <row r="125">
@@ -4651,19 +4095,11 @@
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14813.919922
-Name: 2023-12-15 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4719.189941
-Name: 2023-12-15 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B125" t="n">
+        <v>14813.919921875</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4719.18994140625</v>
       </c>
     </row>
     <row r="126">
@@ -4672,19 +4108,11 @@
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14992.969727
-Name: 2023-12-22 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4754.629883
-Name: 2023-12-22 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B126" t="n">
+        <v>14992.9697265625</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4754.6298828125</v>
       </c>
     </row>
     <row r="127">
@@ -4693,19 +4121,11 @@
           <t>2023-12-29</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15011.349609
-Name: 2023-12-29 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4769.830078
-Name: 2023-12-29 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B127" t="n">
+        <v>15011.349609375</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4769.830078125</v>
       </c>
     </row>
     <row r="128">
@@ -4714,19 +4134,11 @@
           <t>2024-01-05</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14524.070312
-Name: 2024-01-05 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4697.240234
-Name: 2024-01-05 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B128" t="n">
+        <v>14524.0703125</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4697.240234375</v>
       </c>
     </row>
     <row r="129">
@@ -4735,19 +4147,11 @@
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    14972.759766
-Name: 2024-01-12 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4783.830078
-Name: 2024-01-12 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B129" t="n">
+        <v>14972.759765625</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4783.830078125</v>
       </c>
     </row>
     <row r="130">
@@ -4756,19 +4160,11 @@
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15310.969727
-Name: 2024-01-19 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4839.810059
-Name: 2024-01-19 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B130" t="n">
+        <v>15310.9697265625</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4839.81005859375</v>
       </c>
     </row>
     <row r="131">
@@ -4777,19 +4173,11 @@
           <t>2024-01-26</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15455.360352
-Name: 2024-01-26 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4890.970215
-Name: 2024-01-26 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B131" t="n">
+        <v>15455.3603515625</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4890.97021484375</v>
       </c>
     </row>
     <row r="132">
@@ -4798,19 +4186,11 @@
           <t>2024-02-02</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15628.950195
-Name: 2024-02-02 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4958.609863
-Name: 2024-02-02 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B132" t="n">
+        <v>15628.9501953125</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4958.60986328125</v>
       </c>
     </row>
     <row r="133">
@@ -4819,19 +4199,11 @@
           <t>2024-02-09</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15990.660156
-Name: 2024-02-09 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5026.609863
-Name: 2024-02-09 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B133" t="n">
+        <v>15990.66015625</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5026.60986328125</v>
       </c>
     </row>
     <row r="134">
@@ -4840,19 +4212,11 @@
           <t>2024-02-16</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15775.650391
-Name: 2024-02-16 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5005.569824
-Name: 2024-02-16 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B134" t="n">
+        <v>15775.650390625</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5005.56982421875</v>
       </c>
     </row>
     <row r="135">
@@ -4861,19 +4225,11 @@
           <t>2024-02-23</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15996.820312
-Name: 2024-02-23 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5088.799805
-Name: 2024-02-23 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B135" t="n">
+        <v>15996.8203125</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5088.7998046875</v>
       </c>
     </row>
     <row r="136">
@@ -4882,19 +4238,11 @@
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16274.94043
-Name: 2024-03-01 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5137.080078
-Name: 2024-03-01 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B136" t="n">
+        <v>16274.9404296875</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5137.080078125</v>
       </c>
     </row>
     <row r="137">
@@ -4903,19 +4251,11 @@
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16085.110352
-Name: 2024-03-08 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5123.689941
-Name: 2024-03-08 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B137" t="n">
+        <v>16085.1103515625</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5123.68994140625</v>
       </c>
     </row>
     <row r="138">
@@ -4924,19 +4264,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15973.169922
-Name: 2024-03-15 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5117.089844
-Name: 2024-03-15 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B138" t="n">
+        <v>15973.169921875</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5117.08984375</v>
       </c>
     </row>
     <row r="139">
@@ -4945,19 +4277,11 @@
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16428.820312
-Name: 2024-03-22 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5234.180176
-Name: 2024-03-22 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B139" t="n">
+        <v>16428.8203125</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5234.18017578125</v>
       </c>
     </row>
     <row r="140">
@@ -4975,19 +4299,11 @@
           <t>2024-04-05</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16248.519531
-Name: 2024-04-05 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5204.339844
-Name: 2024-04-05 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B141" t="n">
+        <v>16248.51953125</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5204.33984375</v>
       </c>
     </row>
     <row r="142">
@@ -4996,19 +4312,11 @@
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16175.089844
-Name: 2024-04-12 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5123.410156
-Name: 2024-04-12 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B142" t="n">
+        <v>16175.08984375</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5123.41015625</v>
       </c>
     </row>
     <row r="143">
@@ -5017,19 +4325,11 @@
           <t>2024-04-19</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15282.009766
-Name: 2024-04-19 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    4967.22998
-Name: 2024-04-19 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B143" t="n">
+        <v>15282.009765625</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4967.22998046875</v>
       </c>
     </row>
     <row r="144">
@@ -5038,19 +4338,11 @@
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15927.900391
-Name: 2024-04-26 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5099.959961
-Name: 2024-04-26 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B144" t="n">
+        <v>15927.900390625</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5099.9599609375</v>
       </c>
     </row>
     <row r="145">
@@ -5059,19 +4351,11 @@
           <t>2024-05-03</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16156.330078
-Name: 2024-05-03 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5127.790039
-Name: 2024-05-03 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B145" t="n">
+        <v>16156.330078125</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5127.7900390625</v>
       </c>
     </row>
     <row r="146">
@@ -5080,19 +4364,11 @@
           <t>2024-05-10</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16340.870117
-Name: 2024-05-10 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5222.680176
-Name: 2024-05-10 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B146" t="n">
+        <v>16340.8701171875</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5222.68017578125</v>
       </c>
     </row>
     <row r="147">
@@ -5101,19 +4377,11 @@
           <t>2024-05-17</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16685.970703
-Name: 2024-05-17 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5303.27002
-Name: 2024-05-17 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B147" t="n">
+        <v>16685.970703125</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5303.27001953125</v>
       </c>
     </row>
     <row r="148">
@@ -5122,19 +4390,11 @@
           <t>2024-05-24</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16920.789062
-Name: 2024-05-24 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5304.720215
-Name: 2024-05-24 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B148" t="n">
+        <v>16920.7890625</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5304.72021484375</v>
       </c>
     </row>
     <row r="149">
@@ -5143,19 +4403,11 @@
           <t>2024-05-31</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16735.019531
-Name: 2024-05-31 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5277.509766
-Name: 2024-05-31 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B149" t="n">
+        <v>16735.01953125</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5277.509765625</v>
       </c>
     </row>
     <row r="150">
@@ -5164,19 +4416,11 @@
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17133.130859
-Name: 2024-06-07 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5346.990234
-Name: 2024-06-07 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B150" t="n">
+        <v>17133.130859375</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5346.990234375</v>
       </c>
     </row>
     <row r="151">
@@ -5185,19 +4429,11 @@
           <t>2024-06-14</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17688.880859
-Name: 2024-06-14 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5431.600098
-Name: 2024-06-14 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B151" t="n">
+        <v>17688.880859375</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5431.60009765625</v>
       </c>
     </row>
     <row r="152">
@@ -5206,19 +4442,11 @@
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17689.359375
-Name: 2024-06-21 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5464.620117
-Name: 2024-06-21 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B152" t="n">
+        <v>17689.359375</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5464.6201171875</v>
       </c>
     </row>
     <row r="153">
@@ -5227,19 +4455,11 @@
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17732.599609
-Name: 2024-06-28 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5460.47998
-Name: 2024-06-28 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B153" t="n">
+        <v>17732.599609375</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5460.47998046875</v>
       </c>
     </row>
     <row r="154">
@@ -5248,19 +4468,11 @@
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18352.759766
-Name: 2024-07-05 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5567.189941
-Name: 2024-07-05 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B154" t="n">
+        <v>18352.759765625</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5567.18994140625</v>
       </c>
     </row>
     <row r="155">
@@ -5269,19 +4481,11 @@
           <t>2024-07-12</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18398.449219
-Name: 2024-07-12 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5615.350098
-Name: 2024-07-12 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B155" t="n">
+        <v>18398.44921875</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5615.35009765625</v>
       </c>
     </row>
     <row r="156">
@@ -5290,19 +4494,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17726.939453
-Name: 2024-07-19 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5505.0
-Name: 2024-07-19 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B156" t="n">
+        <v>17726.939453125</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5505</v>
       </c>
     </row>
     <row r="157">
@@ -5311,19 +4507,11 @@
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17357.880859
-Name: 2024-07-26 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5459.100098
-Name: 2024-07-26 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B157" t="n">
+        <v>17357.880859375</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5459.10009765625</v>
       </c>
     </row>
     <row r="158">
@@ -5332,19 +4520,11 @@
           <t>2024-08-02</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16776.160156
-Name: 2024-08-02 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5346.560059
-Name: 2024-08-02 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B158" t="n">
+        <v>16776.16015625</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5346.56005859375</v>
       </c>
     </row>
     <row r="159">
@@ -5353,19 +4533,11 @@
           <t>2024-08-09</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16745.300781
-Name: 2024-08-09 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5344.160156
-Name: 2024-08-09 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B159" t="n">
+        <v>16745.30078125</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5344.16015625</v>
       </c>
     </row>
     <row r="160">
@@ -5374,19 +4546,11 @@
           <t>2024-08-16</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17631.720703
-Name: 2024-08-16 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5554.25
-Name: 2024-08-16 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B160" t="n">
+        <v>17631.720703125</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5554.25</v>
       </c>
     </row>
     <row r="161">
@@ -5395,19 +4559,11 @@
           <t>2024-08-23</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17877.789062
-Name: 2024-08-23 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5634.609863
-Name: 2024-08-23 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B161" t="n">
+        <v>17877.7890625</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5634.60986328125</v>
       </c>
     </row>
     <row r="162">
@@ -5416,19 +4572,11 @@
           <t>2024-08-30</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17713.619141
-Name: 2024-08-30 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5648.399902
-Name: 2024-08-30 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B162" t="n">
+        <v>17713.619140625</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5648.39990234375</v>
       </c>
     </row>
     <row r="163">
@@ -5437,19 +4585,11 @@
           <t>2024-09-06</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16690.830078
-Name: 2024-09-06 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5408.419922
-Name: 2024-09-06 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B163" t="n">
+        <v>16690.830078125</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5408.419921875</v>
       </c>
     </row>
     <row r="164">
@@ -5458,19 +4598,11 @@
           <t>2024-09-13</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17683.980469
-Name: 2024-09-13 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5626.02002
-Name: 2024-09-13 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B164" t="n">
+        <v>17683.98046875</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5626.02001953125</v>
       </c>
     </row>
     <row r="165">
@@ -5479,19 +4611,11 @@
           <t>2024-09-20</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17948.320312
-Name: 2024-09-20 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5702.549805
-Name: 2024-09-20 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B165" t="n">
+        <v>17948.3203125</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5702.5498046875</v>
       </c>
     </row>
     <row r="166">
@@ -5500,19 +4624,11 @@
           <t>2024-09-27</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18119.589844
-Name: 2024-09-27 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5738.169922
-Name: 2024-09-27 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B166" t="n">
+        <v>18119.58984375</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5738.169921875</v>
       </c>
     </row>
     <row r="167">
@@ -5521,19 +4637,11 @@
           <t>2024-10-04</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18137.849609
-Name: 2024-10-04 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5751.069824
-Name: 2024-10-04 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B167" t="n">
+        <v>18137.849609375</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5751.06982421875</v>
       </c>
     </row>
     <row r="168">
@@ -5542,19 +4650,11 @@
           <t>2024-10-11</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18342.939453
-Name: 2024-10-11 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5815.029785
-Name: 2024-10-11 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B168" t="n">
+        <v>18342.939453125</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5815.02978515625</v>
       </c>
     </row>
     <row r="169">
@@ -5563,19 +4663,11 @@
           <t>2024-10-18</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18489.550781
-Name: 2024-10-18 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5864.669922
-Name: 2024-10-18 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B169" t="n">
+        <v>18489.55078125</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5864.669921875</v>
       </c>
     </row>
     <row r="170">
@@ -5584,19 +4676,11 @@
           <t>2024-10-25</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18518.609375
-Name: 2024-10-25 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5808.120117
-Name: 2024-10-25 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B170" t="n">
+        <v>18518.609375</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5808.1201171875</v>
       </c>
     </row>
     <row r="171">
@@ -5605,19 +4689,11 @@
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18239.919922
-Name: 2024-11-01 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5728.799805
-Name: 2024-11-01 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B171" t="n">
+        <v>18239.919921875</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5728.7998046875</v>
       </c>
     </row>
     <row r="172">
@@ -5626,19 +4702,11 @@
           <t>2024-11-08</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19286.779297
-Name: 2024-11-08 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5995.540039
-Name: 2024-11-08 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B172" t="n">
+        <v>19286.779296875</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5995.5400390625</v>
       </c>
     </row>
     <row r="173">
@@ -5647,19 +4715,11 @@
           <t>2024-11-15</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18680.119141
-Name: 2024-11-15 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5870.620117
-Name: 2024-11-15 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B173" t="n">
+        <v>18680.119140625</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5870.6201171875</v>
       </c>
     </row>
     <row r="174">
@@ -5668,19 +4728,11 @@
           <t>2024-11-22</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19003.650391
-Name: 2024-11-22 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5969.339844
-Name: 2024-11-22 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B174" t="n">
+        <v>19003.650390625</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5969.33984375</v>
       </c>
     </row>
     <row r="175">
@@ -5689,19 +4741,11 @@
           <t>2024-11-29</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19218.169922
-Name: 2024-11-29 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6032.379883
-Name: 2024-11-29 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B175" t="n">
+        <v>19218.169921875</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6032.3798828125</v>
       </c>
     </row>
     <row r="176">
@@ -5710,19 +4754,11 @@
           <t>2024-12-06</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19859.769531
-Name: 2024-12-06 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6090.27002
-Name: 2024-12-06 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B176" t="n">
+        <v>19859.76953125</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6090.27001953125</v>
       </c>
     </row>
     <row r="177">
@@ -5731,19 +4767,11 @@
           <t>2024-12-13</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19926.720703
-Name: 2024-12-13 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6051.089844
-Name: 2024-12-13 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B177" t="n">
+        <v>19926.720703125</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6051.08984375</v>
       </c>
     </row>
     <row r="178">
@@ -5752,19 +4780,11 @@
           <t>2024-12-20</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19572.599609
-Name: 2024-12-20 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5930.850098
-Name: 2024-12-20 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B178" t="n">
+        <v>19572.599609375</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5930.85009765625</v>
       </c>
     </row>
     <row r="179">
@@ -5773,19 +4793,11 @@
           <t>2024-12-27</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19722.029297
-Name: 2024-12-27 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5970.839844
-Name: 2024-12-27 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B179" t="n">
+        <v>19722.029296875</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5970.83984375</v>
       </c>
     </row>
     <row r="180">
@@ -5794,19 +4806,11 @@
           <t>2025-01-03</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19621.679688
-Name: 2025-01-03 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5942.470215
-Name: 2025-01-03 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B180" t="n">
+        <v>19621.6796875</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5942.47021484375</v>
       </c>
     </row>
     <row r="181">
@@ -5815,19 +4819,11 @@
           <t>2025-01-10</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19161.630859
-Name: 2025-01-10 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5827.040039
-Name: 2025-01-10 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B181" t="n">
+        <v>19161.630859375</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5827.0400390625</v>
       </c>
     </row>
     <row r="182">
@@ -5836,19 +4832,11 @@
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19630.199219
-Name: 2025-01-17 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5996.660156
-Name: 2025-01-17 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B182" t="n">
+        <v>19630.19921875</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5996.66015625</v>
       </c>
     </row>
     <row r="183">
@@ -5857,19 +4845,11 @@
           <t>2025-01-24</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19954.300781
-Name: 2025-01-24 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6101.240234
-Name: 2025-01-24 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B183" t="n">
+        <v>19954.30078125</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6101.240234375</v>
       </c>
     </row>
     <row r="184">
@@ -5878,19 +4858,11 @@
           <t>2025-01-31</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19627.439453
-Name: 2025-01-31 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6040.529785
-Name: 2025-01-31 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B184" t="n">
+        <v>19627.439453125</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6040.52978515625</v>
       </c>
     </row>
     <row r="185">
@@ -5899,19 +4871,11 @@
           <t>2025-02-07</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19523.400391
-Name: 2025-02-07 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6025.990234
-Name: 2025-02-07 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B185" t="n">
+        <v>19523.400390625</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6025.990234375</v>
       </c>
     </row>
     <row r="186">
@@ -5920,19 +4884,11 @@
           <t>2025-02-14</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    20026.769531
-Name: 2025-02-14 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6114.629883
-Name: 2025-02-14 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B186" t="n">
+        <v>20026.76953125</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6114.6298828125</v>
       </c>
     </row>
     <row r="187">
@@ -5941,19 +4897,11 @@
           <t>2025-02-21</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19524.009766
-Name: 2025-02-21 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6013.129883
-Name: 2025-02-21 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B187" t="n">
+        <v>19524.009765625</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6013.1298828125</v>
       </c>
     </row>
     <row r="188">
@@ -5962,19 +4910,11 @@
           <t>2025-02-28</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18847.279297
-Name: 2025-02-28 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5954.5
-Name: 2025-02-28 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B188" t="n">
+        <v>18847.279296875</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5954.5</v>
       </c>
     </row>
     <row r="189">
@@ -5983,19 +4923,11 @@
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18196.220703
-Name: 2025-03-07 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5770.200195
-Name: 2025-03-07 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B189" t="n">
+        <v>18196.220703125</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5770.2001953125</v>
       </c>
     </row>
     <row r="190">
@@ -6004,19 +4936,11 @@
           <t>2025-03-14</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17754.089844
-Name: 2025-03-14 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5638.939941
-Name: 2025-03-14 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B190" t="n">
+        <v>17754.08984375</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5638.93994140625</v>
       </c>
     </row>
     <row r="191">
@@ -6025,19 +4949,11 @@
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17784.050781
-Name: 2025-03-21 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5667.560059
-Name: 2025-03-21 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B191" t="n">
+        <v>17784.05078125</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5667.56005859375</v>
       </c>
     </row>
     <row r="192">
@@ -6046,19 +4962,11 @@
           <t>2025-03-28</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17322.990234
-Name: 2025-03-28 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5580.939941
-Name: 2025-03-28 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B192" t="n">
+        <v>17322.990234375</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5580.93994140625</v>
       </c>
     </row>
     <row r="193">
@@ -6067,19 +4975,11 @@
           <t>2025-04-04</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    15587.790039
-Name: 2025-04-04 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5074.080078
-Name: 2025-04-04 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B193" t="n">
+        <v>15587.7900390625</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5074.080078125</v>
       </c>
     </row>
     <row r="194">
@@ -6088,19 +4988,11 @@
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    16724.460938
-Name: 2025-04-11 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5363.359863
-Name: 2025-04-11 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B194" t="n">
+        <v>16724.4609375</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5363.35986328125</v>
       </c>
     </row>
     <row r="195">
@@ -6118,19 +5010,11 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17382.939453
-Name: 2025-04-25 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5525.209961
-Name: 2025-04-25 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B196" t="n">
+        <v>17382.939453125</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5525.2099609375</v>
       </c>
     </row>
     <row r="197">
@@ -6139,19 +5023,11 @@
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17977.730469
-Name: 2025-05-02 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5686.669922
-Name: 2025-05-02 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B197" t="n">
+        <v>17977.73046875</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5686.669921875</v>
       </c>
     </row>
     <row r="198">
@@ -6160,19 +5036,11 @@
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    17928.919922
-Name: 2025-05-09 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5659.910156
-Name: 2025-05-09 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B198" t="n">
+        <v>17928.919921875</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5659.91015625</v>
       </c>
     </row>
     <row r="199">
@@ -6181,19 +5049,11 @@
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19211.099609
-Name: 2025-05-16 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5958.379883
-Name: 2025-05-16 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B199" t="n">
+        <v>19211.099609375</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5958.3798828125</v>
       </c>
     </row>
     <row r="200">
@@ -6202,19 +5062,11 @@
           <t>2025-05-23</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    18737.210938
-Name: 2025-05-23 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5802.819824
-Name: 2025-05-23 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B200" t="n">
+        <v>18737.2109375</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5802.81982421875</v>
       </c>
     </row>
     <row r="201">
@@ -6223,19 +5075,11 @@
           <t>2025-05-30</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19113.769531
-Name: 2025-05-30 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5911.689941
-Name: 2025-05-30 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B201" t="n">
+        <v>19113.76953125</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5911.68994140625</v>
       </c>
     </row>
     <row r="202">
@@ -6244,19 +5088,11 @@
           <t>2025-06-06</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19529.949219
-Name: 2025-06-06 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    6000.359863
-Name: 2025-06-06 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B202" t="n">
+        <v>19529.94921875</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6000.35986328125</v>
       </c>
     </row>
     <row r="203">
@@ -6265,19 +5101,11 @@
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Ticker
-^IXIC    19406.830078
-Name: 2025-06-13 00:00:00, dtype: float64</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Ticker
-^GSPC    5976.970215
-Name: 2025-06-13 00:00:00, dtype: float64</t>
-        </is>
+      <c r="B203" t="n">
+        <v>19406.830078125</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5976.97021484375</v>
       </c>
     </row>
   </sheetData>
